--- a/region names.xlsx
+++ b/region names.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B27DD-437B-41AE-A471-326CAF8D2580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3C33D-59EA-4197-88E4-D43167277FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{09ADD904-A1FF-46B4-B8CD-7DB7BAE44DE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
   <si>
     <t>AT</t>
   </si>
@@ -735,11 +736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F928BA2-0BE4-49F3-8097-CDFD001FA355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9EDDAC-1AAA-406A-BA97-D20EAB053EC0}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,6 +767,721 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>-9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-4</v>
+      </c>
+      <c r="D12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>-9</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>-4</v>
+      </c>
+      <c r="D31">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>-2</v>
+      </c>
+      <c r="D32">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>-2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>-3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>-4</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>-7</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>-8</v>
+      </c>
+      <c r="D47">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>-7</v>
+      </c>
+      <c r="D50">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F928BA2-0BE4-49F3-8097-CDFD001FA355}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>-8</v>
       </c>
       <c r="D2">

--- a/region names.xlsx
+++ b/region names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3C33D-59EA-4197-88E4-D43167277FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166B359-3072-4C10-948E-FD7F8D1E9401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{09ADD904-A1FF-46B4-B8CD-7DB7BAE44DE4}"/>
   </bookViews>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9EDDAC-1AAA-406A-BA97-D20EAB053EC0}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>-4</v>
       </c>
       <c r="D31">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1201,10 +1201,10 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1285,10 +1285,10 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1341,10 +1341,10 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">

--- a/region names.xlsx
+++ b/region names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166B359-3072-4C10-948E-FD7F8D1E9401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE7A537-AB92-47B7-BCF9-C4A9C3EA354F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{09ADD904-A1FF-46B4-B8CD-7DB7BAE44DE4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>AT</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9EDDAC-1AAA-406A-BA97-D20EAB053EC0}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,10 +1145,10 @@
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C29">
-        <v>-9</v>
+        <v>-7.5</v>
       </c>
       <c r="D29">
         <v>0</v>
